--- a/results/I3_N5_M3_T45_C150_DepCentral_s2_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepCentral_s2_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>600.3467247491039</v>
+        <v>1787.762294422648</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.71436508284903</v>
+        <v>22.10310020474523</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.79934149303875</v>
+        <v>5.475316469592284</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.791701159296143</v>
+        <v>5.134510687494965</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>522.1199999999975</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.52</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31.95858503259002</v>
+        <v>38.80648056830877</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.29375422704624</v>
+        <v>39.47131137385256</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>4.82817771006826</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.99312545677591</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>41.48326856299774</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.27636021569351</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>37.09309572008499</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1132,7 +1132,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1146,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1160,12 +1160,82 @@
         <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1268,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>201.5399999999998</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
@@ -1279,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>194.1249999999999</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>195.9049999999999</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10">
@@ -1301,7 +1371,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>196.0399999999998</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -1312,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>203.55</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
@@ -1323,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>157.885</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13">
@@ -1334,7 +1404,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>157.09</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14">
@@ -1345,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>154.61</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
@@ -1356,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>156.53</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16">
@@ -1367,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>159.68</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17">
@@ -1378,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>41.16999999999932</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1389,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.71499999999931</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1400,7 +1470,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>37.85999999999932</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1411,7 +1481,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>47.65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1422,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>45.31999999999933</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1433,7 +1503,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>147.3399999999997</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -1444,7 +1514,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>159.2049999999997</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1455,7 +1525,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>140.4299999999997</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1536,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -1477,7 +1547,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9949999999997</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1488,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000073</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29">
@@ -1510,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1591,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31">
@@ -1532,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000073</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32">
@@ -1543,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3399999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1554,7 +1624,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>159.2049999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>140.4299999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1576,7 +1646,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>157.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1587,7 +1657,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.9949999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1598,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
@@ -1609,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39">
@@ -1620,7 +1690,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40">
@@ -1631,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +1712,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42">
@@ -1653,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>201.5399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1664,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>194.1249999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1675,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>195.9049999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1686,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>196.0399999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1697,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>203.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1755,7 +1825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9.204999999999673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1777,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +1858,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.994999999999686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1799,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9">
@@ -1821,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10">
@@ -1832,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
@@ -1843,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
@@ -1854,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>51.53999999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1865,7 +1935,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>44.12499999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1876,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>45.90499999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1887,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>46.03999999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1898,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>53.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2055,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -2066,7 +2136,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -2077,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2088,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -2099,7 +2169,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -2110,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2121,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2132,7 +2202,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2143,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -2154,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2165,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2176,7 +2246,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2187,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2198,7 +2268,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2209,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2360,10 +2430,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2371,10 +2441,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2382,12 +2452,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
